--- a/Opollo/src/test/data/pms/physical_bundle_import_create_template_v8.xlsx
+++ b/Opollo/src/test/data/pms/physical_bundle_import_create_template_v8.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="617">
   <si>
     <r>
       <rPr>
@@ -2385,6 +2385,9 @@
   </si>
   <si>
     <t>LKTXM0RXPA</t>
+  </si>
+  <si>
+    <t>LKIFB5Y254</t>
   </si>
 </sst>
 </file>
@@ -3570,7 +3573,7 @@
     </row>
     <row r="4" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>607</v>
@@ -3582,7 +3585,7 @@
         <v>607</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G4" t="s">
         <v>609</v>
